--- a/Volume of coal and lignite production (stat kg).xlsx
+++ b/Volume of coal and lignite production (stat kg).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>Көрсөткүчтөрдүн аталыштары</t>
   </si>
@@ -89,52 +89,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <r>
-      <t>Бишкек ш.</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Bishkek city</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">г.Бишкек </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1</t>
-    </r>
   </si>
   <si>
     <r>
@@ -153,6 +107,9 @@
       <t>1</t>
     </r>
   </si>
+  <si>
+    <t>Talas oblast</t>
+  </si>
 </sst>
 </file>
 
@@ -164,7 +121,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.0\ _₽_-;\-* #,##0.0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,14 +146,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="9"/>
-      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -227,24 +176,9 @@
       <charset val="204"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -264,21 +198,8 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -334,73 +255,52 @@
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -409,16 +309,16 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -430,16 +330,16 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -448,25 +348,16 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -478,37 +369,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal_PPI" xfId="5"/>
@@ -819,667 +700,643 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="26.5546875" style="2" customWidth="1"/>
-    <col min="4" max="12" width="8.5546875" style="2" customWidth="1"/>
+    <col min="1" max="3" width="26.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="8.5546875" style="1" customWidth="1"/>
     <col min="13" max="21" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="11" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:22" s="5" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46">
+      <c r="D1" s="34">
         <v>2006</v>
       </c>
-      <c r="E1" s="46">
+      <c r="E1" s="34">
         <v>2007</v>
       </c>
-      <c r="F1" s="46">
+      <c r="F1" s="34">
         <v>2008</v>
       </c>
-      <c r="G1" s="46">
+      <c r="G1" s="34">
         <v>2009</v>
       </c>
-      <c r="H1" s="46">
+      <c r="H1" s="34">
         <v>2010</v>
       </c>
-      <c r="I1" s="46">
+      <c r="I1" s="34">
         <v>2011</v>
       </c>
-      <c r="J1" s="46">
+      <c r="J1" s="34">
         <v>2012</v>
       </c>
-      <c r="K1" s="47">
+      <c r="K1" s="35">
         <v>2013</v>
       </c>
-      <c r="L1" s="46">
+      <c r="L1" s="34">
         <v>2014</v>
       </c>
-      <c r="M1" s="48">
+      <c r="M1" s="36">
         <v>2015</v>
       </c>
-      <c r="N1" s="48">
+      <c r="N1" s="36">
         <v>2016</v>
       </c>
-      <c r="O1" s="48">
+      <c r="O1" s="36">
         <v>2017</v>
       </c>
-      <c r="P1" s="48">
+      <c r="P1" s="36">
         <v>2018</v>
       </c>
-      <c r="Q1" s="48">
+      <c r="Q1" s="36">
         <v>2019</v>
       </c>
-      <c r="R1" s="49">
+      <c r="R1" s="37">
         <v>2020</v>
       </c>
-      <c r="S1" s="48">
+      <c r="S1" s="36">
         <v>2021</v>
       </c>
-      <c r="T1" s="48">
+      <c r="T1" s="36">
         <v>2022</v>
       </c>
-      <c r="U1" s="48">
+      <c r="U1" s="36">
         <v>2023</v>
       </c>
-      <c r="V1" s="48" t="s">
-        <v>28</v>
+      <c r="V1" s="36" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="11" customFormat="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:22" s="5" customFormat="1">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="12">
         <v>321.3</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="12">
         <v>395.6</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="13">
         <v>491.8</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="14">
         <v>606.9</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="15">
         <v>575</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="14">
         <v>830.7</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="16">
         <v>1163.9000000000001</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="17">
         <v>1406.8</v>
       </c>
-      <c r="L2" s="27">
+      <c r="L2" s="18">
         <v>1812</v>
       </c>
-      <c r="M2" s="27">
+      <c r="M2" s="18">
         <v>1928.7</v>
       </c>
-      <c r="N2" s="28">
+      <c r="N2" s="19">
         <v>1851.3</v>
       </c>
-      <c r="O2" s="28">
+      <c r="O2" s="19">
         <v>1870.4</v>
       </c>
-      <c r="P2" s="28">
+      <c r="P2" s="19">
         <v>2395.1999999999998</v>
       </c>
-      <c r="Q2" s="28">
+      <c r="Q2" s="19">
         <v>2605.9942000000001</v>
       </c>
-      <c r="R2" s="29">
+      <c r="R2" s="20">
         <v>2677.7</v>
       </c>
-      <c r="S2" s="51">
+      <c r="S2" s="38">
         <v>3062.5</v>
       </c>
-      <c r="T2" s="51">
+      <c r="T2" s="38">
         <v>3775.4</v>
       </c>
-      <c r="U2" s="51">
+      <c r="U2" s="38">
         <v>4177.3999999999996</v>
       </c>
-      <c r="V2" s="51">
+      <c r="V2" s="38">
         <v>4396.3</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="11" customFormat="1">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:22" s="5" customFormat="1">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="21">
         <v>139.4</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="21">
         <v>132.6</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="21">
         <v>157.1</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="21">
         <v>148.9</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="21">
         <v>156.5</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="21">
         <v>179</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="21">
         <v>190.4</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="22">
         <v>213.8</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="23">
         <v>203.6</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="23">
         <v>249</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="24">
         <v>294</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="21">
         <v>222.1</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="21">
         <v>378.7</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="25">
         <v>422.55379999999997</v>
       </c>
-      <c r="R3" s="35">
+      <c r="R3" s="26">
         <v>475.6</v>
       </c>
-      <c r="S3" s="52">
+      <c r="S3" s="39">
         <v>654.9</v>
       </c>
-      <c r="T3" s="52">
+      <c r="T3" s="39">
         <v>774.9</v>
       </c>
-      <c r="U3" s="52">
+      <c r="U3" s="39">
         <v>954.4</v>
       </c>
-      <c r="V3" s="52">
+      <c r="V3" s="39">
         <v>1033.5999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="11" customFormat="1">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:22" s="5" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="21">
+        <v>31.3</v>
+      </c>
+      <c r="E4" s="21">
+        <v>89.9</v>
+      </c>
+      <c r="F4" s="25">
+        <v>135</v>
+      </c>
+      <c r="G4" s="21">
+        <v>185.4</v>
+      </c>
+      <c r="H4" s="21">
+        <v>181.4</v>
+      </c>
+      <c r="I4" s="21">
+        <v>253.5</v>
+      </c>
+      <c r="J4" s="21">
+        <v>491.8</v>
+      </c>
+      <c r="K4" s="22">
+        <v>625.5</v>
+      </c>
+      <c r="L4" s="23">
+        <v>698.1</v>
+      </c>
+      <c r="M4" s="23">
+        <v>763.2</v>
+      </c>
+      <c r="N4" s="32">
+        <v>585.70000000000005</v>
+      </c>
+      <c r="O4" s="21">
+        <v>650.29999999999995</v>
+      </c>
+      <c r="P4" s="21">
+        <v>773.2</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>810.80409999999995</v>
+      </c>
+      <c r="R4" s="26">
+        <v>535.20000000000005</v>
+      </c>
+      <c r="S4" s="41">
+        <v>875.1</v>
+      </c>
+      <c r="T4" s="41">
+        <v>977</v>
+      </c>
+      <c r="U4" s="41">
+        <v>1001.6</v>
+      </c>
+      <c r="V4" s="41">
+        <v>789.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="43" t="str">
+        <f>D8</f>
+        <v>-</v>
+      </c>
+      <c r="E5" s="43" t="str">
+        <f t="shared" ref="E5:V5" si="0">E8</f>
+        <v>-</v>
+      </c>
+      <c r="F5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="H5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="I5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="J5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="K5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="L5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="M5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="N5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="O5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="P5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="Q5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="R5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="S5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="T5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="U5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="V5" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="5" customFormat="1">
+      <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D6" s="21">
         <v>23.3</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E6" s="21">
         <v>26.5</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F6" s="21">
         <v>46.5</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G6" s="21">
         <v>51.1</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H6" s="21">
         <v>49.5</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I6" s="21">
         <v>53.4</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J6" s="21">
         <v>88.5</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K6" s="22">
         <v>153.5</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L6" s="23">
         <v>231</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M6" s="23">
         <v>159.80000000000001</v>
       </c>
-      <c r="N4" s="36">
+      <c r="N6" s="27">
         <v>146.9</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O6" s="21">
         <v>130.4</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P6" s="21">
         <v>155.6</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q6" s="25">
         <v>120.4374</v>
       </c>
-      <c r="R4" s="35">
+      <c r="R6" s="26">
         <v>300.89999999999998</v>
       </c>
-      <c r="S4" s="52">
+      <c r="S6" s="39">
         <v>264.5</v>
       </c>
-      <c r="T4" s="52">
+      <c r="T6" s="39">
         <v>191.7</v>
       </c>
-      <c r="U4" s="52">
+      <c r="U6" s="39">
         <v>404.8</v>
       </c>
-      <c r="V4" s="52">
+      <c r="V6" s="39">
         <v>315.10000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="11" customFormat="1">
-      <c r="A5" s="15" t="s">
+    <row r="7" spans="1:22" s="5" customFormat="1">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D7" s="21">
         <v>22.2</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E7" s="21">
         <v>10.7</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F7" s="21">
         <v>8.6</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G7" s="21">
         <v>8.9</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H7" s="21">
         <v>4.2</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I7" s="21">
         <v>9.1</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J7" s="21">
         <v>13.1</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K7" s="22">
         <v>0.9</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L7" s="23">
         <v>1</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M7" s="23">
         <v>3.4</v>
       </c>
-      <c r="N5" s="36">
+      <c r="N7" s="27">
         <v>3.8</v>
       </c>
-      <c r="O5" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="R5" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="T5" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="U5" s="53">
+      <c r="O7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="U7" s="40">
         <v>9.3000000000000007</v>
       </c>
-      <c r="V5" s="53">
+      <c r="V7" s="40">
         <v>5.3</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="11" customFormat="1">
-      <c r="A6" s="15" t="s">
+    <row r="8" spans="1:22" s="5" customFormat="1">
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="5" customFormat="1">
+      <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D9" s="21">
         <v>105.1</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E9" s="21">
         <v>135.9</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F9" s="21">
         <v>144.6</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G9" s="21">
         <v>212.6</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H9" s="21">
         <v>183.4</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I9" s="21">
         <v>335.6</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J9" s="21">
         <v>379.8</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K9" s="22">
         <v>413.1</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L9" s="23">
         <v>678.3</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M9" s="23">
         <v>753.2</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N9" s="27">
         <v>820.9</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O9" s="21">
         <v>867.6</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P9" s="21">
         <v>1087.7</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q9" s="25">
         <v>1252.1988999999999</v>
       </c>
-      <c r="R6" s="40">
+      <c r="R9" s="31">
         <v>1366</v>
       </c>
-      <c r="S6" s="52">
+      <c r="S9" s="39">
         <v>1268</v>
       </c>
-      <c r="T6" s="52">
+      <c r="T9" s="39">
         <v>1831.8</v>
       </c>
-      <c r="U6" s="52">
+      <c r="U9" s="39">
         <v>1807.3</v>
       </c>
-      <c r="V6" s="52">
+      <c r="V9" s="39">
         <v>2252.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" s="11" customFormat="1">
-      <c r="A7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="30">
-        <v>31.3</v>
-      </c>
-      <c r="E7" s="30">
-        <v>89.9</v>
-      </c>
-      <c r="F7" s="34">
-        <v>135</v>
-      </c>
-      <c r="G7" s="30">
-        <v>185.4</v>
-      </c>
-      <c r="H7" s="30">
-        <v>181.4</v>
-      </c>
-      <c r="I7" s="30">
-        <v>253.5</v>
-      </c>
-      <c r="J7" s="30">
-        <v>491.8</v>
-      </c>
-      <c r="K7" s="31">
-        <v>625.5</v>
-      </c>
-      <c r="L7" s="32">
-        <v>698.1</v>
-      </c>
-      <c r="M7" s="32">
-        <v>763.2</v>
-      </c>
-      <c r="N7" s="41">
-        <v>585.70000000000005</v>
-      </c>
-      <c r="O7" s="30">
-        <v>650.29999999999995</v>
-      </c>
-      <c r="P7" s="30">
-        <v>773.2</v>
-      </c>
-      <c r="Q7" s="34">
-        <v>810.80409999999995</v>
-      </c>
-      <c r="R7" s="35">
-        <v>535.20000000000005</v>
-      </c>
-      <c r="S7" s="54">
-        <v>875.1</v>
-      </c>
-      <c r="T7" s="54">
-        <v>977</v>
-      </c>
-      <c r="U7" s="54">
-        <v>1001.6</v>
-      </c>
-      <c r="V7" s="54">
-        <v>789.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="11" customFormat="1">
-      <c r="A8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="R8" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="T8" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="U8" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="V8" s="55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="11" customFormat="1" ht="15" thickBot="1">
-      <c r="A9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="J9" s="43">
-        <v>0.3</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="44">
-        <v>0.1</v>
-      </c>
-      <c r="N9" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="R9" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="U9" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="V9" s="56" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="57"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-    </row>
-    <row r="11" spans="1:22" s="50" customFormat="1" ht="12">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
